--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_5_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>810521.5430392942</v>
+        <v>808264.5211302111</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.58283624</v>
+        <v>6654055.582836232</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>52.85520629234744</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>215.4905297143698</v>
       </c>
     </row>
     <row r="3">
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,28 +859,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>89.19402707783466</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>94.63926978364034</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +911,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>135.4095352681599</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -950,16 +950,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>93.91328675259808</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>168.7756050755991</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>126.3088163331421</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>363.5687190723336</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>135.0393428231426</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>127.0044127072328</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1427,10 +1427,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470136</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174145</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S12" t="n">
         <v>128.1435076414547</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>74.75769145492373</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,10 +1579,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>65.03791276849626</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292724</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589022</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,10 +1701,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H15" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247653</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>74.75769145492329</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
@@ -1819,13 +1819,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>15.72846594283948</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1862,7 +1862,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1895,7 +1895,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247653</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2056,13 +2056,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>193.7227085619087</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>194.0338686928864</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2099,7 +2099,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2175,10 +2175,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247653</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2245,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,22 +2290,22 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
-        <v>73.11206506387256</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>198.4011868502809</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2369,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>155.624941252198</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>113.510364625081</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2606,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>113.510364625081</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>149.4642351393304</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247654</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,10 +2916,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734111903</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T30" t="n">
         <v>190.7165703189231</v>
@@ -2947,22 +2947,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>49.00146986796997</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>271.1280510637114</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3047,7 +3047,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292587</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3080,7 +3080,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851113</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247739</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734097636</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T33" t="n">
         <v>190.7165703189231</v>
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>60.31323908025389</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>9.431198642871948</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
@@ -3241,16 +3241,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3284,7 +3284,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292636</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3424,16 +3424,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>166.1905658102224</v>
       </c>
       <c r="D37" t="n">
-        <v>107.1514155801338</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>145.377707358164</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>144.3647927345261</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>87.87589738164195</v>
       </c>
       <c r="S37" t="n">
-        <v>188.7127700430368</v>
+        <v>188.7127700430365</v>
       </c>
       <c r="T37" t="n">
-        <v>218.4926939877641</v>
+        <v>218.4926939877638</v>
       </c>
       <c r="U37" t="n">
-        <v>285.1555829172077</v>
+        <v>285.1555829172075</v>
       </c>
       <c r="V37" t="n">
-        <v>251.0813880354229</v>
+        <v>251.0813880354226</v>
       </c>
       <c r="W37" t="n">
-        <v>285.4667430481858</v>
+        <v>285.4667430481856</v>
       </c>
       <c r="X37" t="n">
-        <v>224.653400100632</v>
+        <v>224.6534001006318</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>142.8274524809625</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
@@ -3521,7 +3521,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292636</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433977</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H40" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124548</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3758,7 +3758,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881769</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>132.8568435633456</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124525</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145478</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145475</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1394.624369323446</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="C2" t="n">
-        <v>1394.624369323446</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="D2" t="n">
-        <v>1036.358670716696</v>
+        <v>1345.301239238533</v>
       </c>
       <c r="E2" t="n">
-        <v>1036.358670716696</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2478.514423990285</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U2" t="n">
-        <v>2224.752638628377</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V2" t="n">
-        <v>2224.752638628377</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="W2" t="n">
-        <v>2224.752638628377</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="X2" t="n">
-        <v>2171.363541363379</v>
+        <v>1949.568281034341</v>
       </c>
       <c r="Y2" t="n">
-        <v>1781.224209387568</v>
+        <v>1731.901079302655</v>
       </c>
     </row>
     <row r="3">
@@ -4410,10 +4410,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>608.6170882137585</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>608.6170882137585</v>
+        <v>632.5337622027571</v>
       </c>
       <c r="U4" t="n">
-        <v>608.6170882137585</v>
+        <v>343.360151857325</v>
       </c>
       <c r="V4" t="n">
-        <v>608.6170882137585</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W4" t="n">
-        <v>608.6170882137585</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>380.6275373157412</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1686.741202187451</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="C5" t="n">
-        <v>1317.778685247039</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="D5" t="n">
-        <v>959.5129866402885</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="E5" t="n">
-        <v>959.5129866402885</v>
+        <v>769.0955750279682</v>
       </c>
       <c r="F5" t="n">
-        <v>548.527081850681</v>
+        <v>358.1096702383606</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>344.1862661769515</v>
       </c>
       <c r="H5" t="n">
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733125</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332392</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332392</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W5" t="n">
-        <v>2168.202948062278</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X5" t="n">
-        <v>2073.341042251573</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y5" t="n">
-        <v>2073.341042251573</v>
+        <v>1154.883827626212</v>
       </c>
     </row>
     <row r="6">
@@ -4641,13 +4641,13 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598713</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>536.6170209242687</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>281.9325327183818</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W7" t="n">
-        <v>281.9325327183818</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2092.422847177208</v>
+        <v>770.969123535386</v>
       </c>
       <c r="C8" t="n">
-        <v>1723.460330236796</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="D8" t="n">
-        <v>1723.460330236796</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="E8" t="n">
-        <v>1337.672077638552</v>
+        <v>402.0066065949742</v>
       </c>
       <c r="F8" t="n">
-        <v>926.6861728489446</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G8" t="n">
-        <v>508.7223647471315</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H8" t="n">
-        <v>181.5276447831343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733131</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4820,34 +4820,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W8" t="n">
-        <v>2092.422847177208</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.422847177208</v>
+        <v>1161.108455511198</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.422847177208</v>
+        <v>770.969123535386</v>
       </c>
     </row>
     <row r="9">
@@ -4878,28 +4878,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>484.423641878219</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>484.423641878219</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>484.423641878219</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>484.423641878219</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>484.423641878219</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>348.0202652891861</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4969,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>484.423641878219</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>484.423641878219</v>
+        <v>471.4038777286579</v>
       </c>
       <c r="U10" t="n">
-        <v>484.423641878219</v>
+        <v>182.2302673832259</v>
       </c>
       <c r="V10" t="n">
-        <v>484.423641878219</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W10" t="n">
-        <v>484.423641878219</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X10" t="n">
-        <v>484.423641878219</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>484.423641878219</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5024,10 +5024,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551622</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
         <v>435.1415336001585</v>
@@ -5036,10 +5036,10 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>284.4401654074199</v>
       </c>
       <c r="K11" t="n">
         <v>939.1634975427194</v>
@@ -5048,43 +5048,43 @@
         <v>1803.682313196074</v>
       </c>
       <c r="M11" t="n">
-        <v>2337.214217867999</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N11" t="n">
-        <v>2883.993034926781</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O11" t="n">
-        <v>3547.201365906985</v>
+        <v>3831.983903964022</v>
       </c>
       <c r="P11" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q11" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R11" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S11" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T11" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U11" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V11" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W11" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X11" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y11" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="12">
@@ -5094,37 +5094,37 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089898</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468574</v>
       </c>
       <c r="I12" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J12" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5139,7 +5139,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,7 +5148,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U12" t="n">
         <v>2043.809373447819</v>
@@ -5157,7 +5157,7 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X12" t="n">
         <v>1346.568408282342</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>655.3925893356336</v>
+        <v>171.0738540998326</v>
       </c>
       <c r="C13" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D13" t="n">
-        <v>655.3925893356336</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E13" t="n">
-        <v>507.4794957532405</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F13" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H13" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I13" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J13" t="n">
-        <v>140.6836668953299</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K13" t="n">
         <v>344.6708498442064</v>
@@ -5212,7 +5212,7 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O13" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P13" t="n">
         <v>1878.733169952189</v>
@@ -5227,22 +5227,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T13" t="n">
-        <v>1609.132263306738</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1609.132263306738</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V13" t="n">
-        <v>1354.447775100851</v>
+        <v>909.2731541783406</v>
       </c>
       <c r="W13" t="n">
-        <v>1065.030605063891</v>
+        <v>619.8559841413801</v>
       </c>
       <c r="X13" t="n">
-        <v>837.0410541658733</v>
+        <v>391.8664332433627</v>
       </c>
       <c r="Y13" t="n">
-        <v>837.0410541658733</v>
+        <v>171.0738540998326</v>
       </c>
     </row>
     <row r="14">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690177</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749766</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143015</v>
@@ -5264,64 +5264,64 @@
         <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551633</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001598</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.557933208927</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K14" t="n">
-        <v>818.2062848686776</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L14" t="n">
-        <v>1682.725100522032</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M14" t="n">
-        <v>2216.257005193957</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N14" t="n">
-        <v>3196.009277420604</v>
+        <v>3297.750360443164</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322501</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730111</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754299</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5331,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J15" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K15" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N15" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O15" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P15" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R15" t="n">
         <v>2593.958107142067</v>
@@ -5385,16 +5385,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U15" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V15" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W15" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X15" t="n">
         <v>1346.568408282341</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>806.7425750505952</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C16" t="n">
-        <v>637.8063921226883</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D16" t="n">
-        <v>487.6897527103525</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E16" t="n">
-        <v>339.7766591279594</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H16" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K16" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L16" t="n">
         <v>661.2306482927024</v>
@@ -5449,37 +5449,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O16" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P16" t="n">
-        <v>1878.733169952189</v>
+        <v>1878.733169952188</v>
       </c>
       <c r="Q16" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U16" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V16" t="n">
-        <v>1453.060509258584</v>
+        <v>909.2731541783401</v>
       </c>
       <c r="W16" t="n">
-        <v>1437.173169922382</v>
+        <v>619.8559841413795</v>
       </c>
       <c r="X16" t="n">
-        <v>1209.183619024365</v>
+        <v>391.8664332433622</v>
       </c>
       <c r="Y16" t="n">
-        <v>988.3910398808349</v>
+        <v>171.0738540998321</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551625</v>
+        <v>850.2139837551634</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H17" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I17" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J17" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M17" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195856</v>
       </c>
       <c r="N17" t="n">
-        <v>3441.080929807096</v>
+        <v>3195.001976422503</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>3800.722831322501</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R17" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S17" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T17" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494859</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763709</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I18" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J18" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P18" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R18" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S18" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X18" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y18" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="19">
@@ -5650,31 +5650,31 @@
         <v>264.4972173763014</v>
       </c>
       <c r="C19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I19" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J19" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5686,28 +5686,28 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U19" t="n">
-        <v>1257.381005660696</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V19" t="n">
-        <v>1002.696517454809</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W19" t="n">
         <v>713.2793474178488</v>
@@ -5747,49 +5747,49 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I20" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1088.893283004707</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>1622.425187676632</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>2602.177459903278</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232733</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679679</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188667</v>
       </c>
       <c r="R20" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.051722419722</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946817</v>
       </c>
       <c r="T20" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331039</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604876</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261305</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991191</v>
       </c>
       <c r="X20" t="n">
         <v>3150.95552873011</v>
@@ -5805,52 +5805,52 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C21" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089888</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468563</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I21" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P21" t="n">
         <v>2436.460902902952</v>
       </c>
       <c r="Q21" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R21" t="n">
         <v>2593.958107142067</v>
@@ -5859,16 +5859,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T21" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U21" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W21" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X21" t="n">
         <v>1346.568408282341</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>970.5459590456827</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C22" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D22" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E22" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F22" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G22" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H22" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I22" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J22" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
       </c>
       <c r="M22" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N22" t="n">
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689059</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T22" t="n">
-        <v>1674.827124689059</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1674.827124689059</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V22" t="n">
-        <v>1600.97655391747</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W22" t="n">
-        <v>1600.97655391747</v>
+        <v>874.5404723472664</v>
       </c>
       <c r="X22" t="n">
-        <v>1372.987003019452</v>
+        <v>646.550921449249</v>
       </c>
       <c r="Y22" t="n">
-        <v>1152.194423875922</v>
+        <v>446.145682206541</v>
       </c>
     </row>
     <row r="23">
@@ -5984,31 +5984,31 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622687</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294612</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353394</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O23" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P23" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q23" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C24" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H24" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I24" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193586</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320239</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6081,25 +6081,25 @@
         <v>1715.000032008795</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6108,10 +6108,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="25">
@@ -6121,34 +6121,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>562.5269503710302</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="C25" t="n">
-        <v>393.5907674431233</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="D25" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="E25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="F25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="H25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="I25" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839444</v>
       </c>
       <c r="J25" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K25" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L25" t="n">
         <v>661.2306482927024</v>
@@ -6166,31 +6166,31 @@
         <v>1878.733169952189</v>
       </c>
       <c r="Q25" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>909.2731541783404</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570255</v>
+        <v>619.8559841413798</v>
       </c>
       <c r="X25" t="n">
-        <v>744.17541520127</v>
+        <v>391.8664332433625</v>
       </c>
       <c r="Y25" t="n">
-        <v>744.17541520127</v>
+        <v>277.2094992786342</v>
       </c>
     </row>
     <row r="26">
@@ -6215,31 +6215,31 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L26" t="n">
-        <v>1557.603359811481</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M26" t="n">
-        <v>2091.135264483406</v>
+        <v>2183.715908442898</v>
       </c>
       <c r="N26" t="n">
-        <v>2637.914081542188</v>
+        <v>3163.468180669544</v>
       </c>
       <c r="O26" t="n">
-        <v>3482.142110232732</v>
+        <v>3666.440651548881</v>
       </c>
       <c r="P26" t="n">
         <v>4195.497197679678</v>
@@ -6279,34 +6279,34 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
         <v>794.200663232024</v>
@@ -6324,7 +6324,7 @@
         <v>2436.460902902952</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142067</v>
@@ -6333,16 +6333,16 @@
         <v>2464.520220635547</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U27" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282341</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>562.5269503710301</v>
+        <v>210.2179684131227</v>
       </c>
       <c r="C28" t="n">
-        <v>393.5907674431232</v>
+        <v>210.2179684131227</v>
       </c>
       <c r="D28" t="n">
-        <v>243.4741280307875</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E28" t="n">
         <v>95.56103444839442</v>
@@ -6385,7 +6385,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6397,37 +6397,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S28" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T28" t="n">
-        <v>1956.343466104704</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U28" t="n">
-        <v>1667.240599230347</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V28" t="n">
-        <v>1412.55611102446</v>
+        <v>909.2731541783403</v>
       </c>
       <c r="W28" t="n">
-        <v>1123.1389409875</v>
+        <v>619.8559841413797</v>
       </c>
       <c r="X28" t="n">
-        <v>895.1493900894823</v>
+        <v>391.8664332433624</v>
       </c>
       <c r="Y28" t="n">
-        <v>744.1754152012699</v>
+        <v>391.8664332433624</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277731</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
-        <v>1557.603359811482</v>
+        <v>1586.925993846824</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518748</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542189</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="30">
@@ -6516,70 +6516,70 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973187</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161917</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549405</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494858</v>
+        <v>487.967878549485</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763708</v>
+        <v>341.43332057637</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089881</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468556</v>
       </c>
       <c r="I30" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320247</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
-        <v>2594.102460549554</v>
+        <v>2594.102460549551</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313402</v>
       </c>
       <c r="U30" t="n">
         <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216075</v>
       </c>
       <c r="W30" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487873</v>
       </c>
       <c r="X30" t="n">
         <v>1346.568408282341</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>727.0030950818859</v>
+        <v>414.6138567886369</v>
       </c>
       <c r="C31" t="n">
-        <v>558.0669121539789</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D31" t="n">
-        <v>558.0669121539789</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E31" t="n">
-        <v>410.1538185715858</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F31" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
         <v>95.56103444839442</v>
@@ -6622,49 +6622,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442062</v>
       </c>
       <c r="L31" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M31" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N31" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1906.847031894634</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S31" t="n">
-        <v>1715.16114772146</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T31" t="n">
-        <v>1715.16114772146</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U31" t="n">
-        <v>1426.058280847104</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V31" t="n">
-        <v>1426.058280847104</v>
+        <v>909.2731541783402</v>
       </c>
       <c r="W31" t="n">
-        <v>1136.641110810143</v>
+        <v>635.406435932167</v>
       </c>
       <c r="X31" t="n">
-        <v>908.6515599121257</v>
+        <v>635.406435932167</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.6515599121257</v>
+        <v>414.6138567886369</v>
       </c>
     </row>
     <row r="32">
@@ -6692,28 +6692,28 @@
         <v>435.1415336001592</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089256</v>
+        <v>137.557933208926</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277731</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>939.1634975427193</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811482</v>
+        <v>1784.466183544592</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2317.998088216516</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542189</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P32" t="n">
         <v>4195.497197679678</v>
@@ -6753,49 +6753,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320247</v>
       </c>
       <c r="M33" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O33" t="n">
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
@@ -6810,7 +6810,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6819,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>550.0071782166618</v>
+        <v>472.0994283734967</v>
       </c>
       <c r="C34" t="n">
-        <v>550.0071782166618</v>
+        <v>472.0994283734967</v>
       </c>
       <c r="D34" t="n">
-        <v>399.8905388043261</v>
+        <v>411.1769646560685</v>
       </c>
       <c r="E34" t="n">
-        <v>251.977445221933</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F34" t="n">
-        <v>105.0874977240227</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G34" t="n">
-        <v>105.0874977240227</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
         <v>95.56103444839442</v>
@@ -6859,49 +6859,49 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442065</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927023</v>
       </c>
       <c r="M34" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N34" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
-        <v>1878.73316995219</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.657581931531</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T34" t="n">
-        <v>1542.890966501057</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U34" t="n">
-        <v>1542.890966501057</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V34" t="n">
-        <v>1288.20647829517</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W34" t="n">
-        <v>998.7893082582093</v>
+        <v>874.5404723472666</v>
       </c>
       <c r="X34" t="n">
-        <v>770.799757360192</v>
+        <v>874.5404723472666</v>
       </c>
       <c r="Y34" t="n">
-        <v>550.0071782166618</v>
+        <v>653.7478932037365</v>
       </c>
     </row>
     <row r="35">
@@ -6914,49 +6914,49 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D35" t="n">
         <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001589</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089261</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>722.4071781934688</v>
+        <v>785.6651881176192</v>
       </c>
       <c r="L35" t="n">
-        <v>1586.925993846824</v>
+        <v>1650.184003770974</v>
       </c>
       <c r="M35" t="n">
-        <v>2120.457898518748</v>
+        <v>2628.734306600802</v>
       </c>
       <c r="N35" t="n">
-        <v>2667.236715577531</v>
+        <v>3189.361480106701</v>
       </c>
       <c r="O35" t="n">
-        <v>3547.201365906985</v>
+        <v>3692.333950986038</v>
       </c>
       <c r="P35" t="n">
-        <v>4260.556453353931</v>
+        <v>4405.689038432984</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6990,43 +6990,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K36" t="n">
         <v>427.5025029193594</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M36" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7035,7 +7035,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7044,16 +7044,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
         <v>1346.568408282342</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>496.463979572459</v>
+        <v>263.4302928425583</v>
       </c>
       <c r="C37" t="n">
-        <v>496.463979572459</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>388.2302264612127</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>241.3840574125622</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
         <v>95.56103444839442</v>
@@ -7093,52 +7093,52 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
-        <v>141.7293596308511</v>
+        <v>141.7293596308513</v>
       </c>
       <c r="K37" t="n">
-        <v>346.7622353152487</v>
+        <v>346.7622353152489</v>
       </c>
       <c r="L37" t="n">
-        <v>664.3677264992659</v>
+        <v>664.3677264992664</v>
       </c>
       <c r="M37" t="n">
-        <v>1009.570464834336</v>
+        <v>1009.570464834337</v>
       </c>
       <c r="N37" t="n">
-        <v>1352.024534275722</v>
+        <v>1352.024534275723</v>
       </c>
       <c r="O37" t="n">
-        <v>1652.399825931656</v>
+        <v>1652.399825931657</v>
       </c>
       <c r="P37" t="n">
-        <v>1886.053019100837</v>
+        <v>1886.053019100838</v>
       </c>
       <c r="Q37" t="n">
-        <v>1964.709007988872</v>
+        <v>1964.709007988874</v>
       </c>
       <c r="R37" t="n">
-        <v>1964.709007988872</v>
+        <v>1875.945475280145</v>
       </c>
       <c r="S37" t="n">
-        <v>1774.090048349441</v>
+        <v>1685.326515640714</v>
       </c>
       <c r="T37" t="n">
-        <v>1553.39035745271</v>
+        <v>1464.626824743983</v>
       </c>
       <c r="U37" t="n">
-        <v>1265.354415112096</v>
+        <v>1176.590882403369</v>
       </c>
       <c r="V37" t="n">
-        <v>1011.736851439952</v>
+        <v>922.9733187312249</v>
       </c>
       <c r="W37" t="n">
-        <v>723.3866059367338</v>
+        <v>634.6230732280071</v>
       </c>
       <c r="X37" t="n">
-        <v>496.463979572459</v>
+        <v>407.7004468637326</v>
       </c>
       <c r="Y37" t="n">
-        <v>496.463979572459</v>
+        <v>263.4302928425583</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7160,40 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551624</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
-        <v>435.1415336001589</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H38" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1069.293752345675</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2047.844055175503</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3027.59632740215</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3865.782086996753</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7242,7 +7242,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7251,13 +7251,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390123</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>788.5151678215059</v>
+        <v>788.5151678215052</v>
       </c>
       <c r="C40" t="n">
-        <v>667.0286178416723</v>
+        <v>667.0286178416716</v>
       </c>
       <c r="D40" t="n">
-        <v>564.3616113774098</v>
+        <v>564.3616113774092</v>
       </c>
       <c r="E40" t="n">
-        <v>463.8981507430901</v>
+        <v>463.8981507430893</v>
       </c>
       <c r="F40" t="n">
-        <v>364.4578361932524</v>
+        <v>364.4578361932523</v>
       </c>
       <c r="G40" t="n">
-        <v>244.2046325160447</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H40" t="n">
         <v>145.4370786819757</v>
@@ -7333,10 +7333,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K40" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L40" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M40" t="n">
         <v>1191.409234901878</v>
@@ -7351,19 +7351,19 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q40" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R40" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S40" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T40" t="n">
         <v>1967.452490122057</v>
       </c>
       <c r="U40" t="n">
-        <v>1725.799256195774</v>
+        <v>1725.799256195773</v>
       </c>
       <c r="V40" t="n">
         <v>1518.56440093796</v>
@@ -7375,7 +7375,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y40" t="n">
-        <v>922.7139997036722</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
     <row r="41">
@@ -7409,22 +7409,22 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1840.447459262339</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2373.979363934263</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P41" t="n">
         <v>4195.497197679678</v>
@@ -7436,19 +7436,19 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
         <v>3150.95552873011</v>
@@ -7479,7 +7479,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,13 +7488,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320247</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
@@ -7558,10 +7558,10 @@
         <v>364.4578361932523</v>
       </c>
       <c r="G43" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160445</v>
       </c>
       <c r="H43" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819755</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839442</v>
@@ -7570,10 +7570,10 @@
         <v>187.1890521477366</v>
       </c>
       <c r="K43" t="n">
-        <v>437.6816203490197</v>
+        <v>437.6816203490196</v>
       </c>
       <c r="L43" t="n">
-        <v>800.7468040499225</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M43" t="n">
         <v>1191.409234901878</v>
@@ -7588,13 +7588,13 @@
         <v>2204.270866719035</v>
       </c>
       <c r="Q43" t="n">
-        <v>2328.386548123957</v>
+        <v>2328.386548123956</v>
       </c>
       <c r="R43" t="n">
         <v>2286.005723829558</v>
       </c>
       <c r="S43" t="n">
-        <v>2141.769472604458</v>
+        <v>2141.769472604457</v>
       </c>
       <c r="T43" t="n">
         <v>1967.452490122057</v>
@@ -7603,16 +7603,16 @@
         <v>1725.799256195774</v>
       </c>
       <c r="V43" t="n">
-        <v>1518.564400937961</v>
+        <v>1518.56440093796</v>
       </c>
       <c r="W43" t="n">
-        <v>1276.596863849073</v>
+        <v>1276.596863849072</v>
       </c>
       <c r="X43" t="n">
-        <v>1096.056945899129</v>
+        <v>1096.056945899128</v>
       </c>
       <c r="Y43" t="n">
-        <v>922.7139997036725</v>
+        <v>922.7139997036716</v>
       </c>
     </row>
     <row r="44">
@@ -7637,7 +7637,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H44" t="n">
         <v>137.5579332089257</v>
@@ -7652,22 +7652,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1971.087962216427</v>
+        <v>1772.421240554552</v>
       </c>
       <c r="M44" t="n">
-        <v>2504.619866888352</v>
+        <v>2750.97154338438</v>
       </c>
       <c r="N44" t="n">
-        <v>3051.398683947134</v>
+        <v>3297.750360443163</v>
       </c>
       <c r="O44" t="n">
-        <v>3554.371154826471</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.556453353931</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
         <v>4778.051722419721</v>
@@ -7716,7 +7716,7 @@
         <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H45" t="n">
         <v>114.5683260468568</v>
@@ -7725,13 +7725,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>788.5151678215051</v>
+        <v>788.5151678215053</v>
       </c>
       <c r="C46" t="n">
-        <v>667.0286178416715</v>
+        <v>667.0286178416717</v>
       </c>
       <c r="D46" t="n">
-        <v>564.3616113774091</v>
+        <v>564.3616113774093</v>
       </c>
       <c r="E46" t="n">
-        <v>463.8981507430893</v>
+        <v>463.8981507430894</v>
       </c>
       <c r="F46" t="n">
-        <v>364.4578361932523</v>
+        <v>364.4578361932524</v>
       </c>
       <c r="G46" t="n">
-        <v>244.2046325160446</v>
+        <v>244.2046325160447</v>
       </c>
       <c r="H46" t="n">
-        <v>145.4370786819757</v>
+        <v>145.4370786819758</v>
       </c>
       <c r="I46" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
-        <v>187.1890521477367</v>
+        <v>187.1890521477366</v>
       </c>
       <c r="K46" t="n">
         <v>437.6816203490197</v>
       </c>
       <c r="L46" t="n">
-        <v>800.7468040499224</v>
+        <v>800.7468040499223</v>
       </c>
       <c r="M46" t="n">
         <v>1191.409234901878</v>
@@ -7849,7 +7849,7 @@
         <v>1096.056945899129</v>
       </c>
       <c r="Y46" t="n">
-        <v>922.7139997036714</v>
+        <v>922.7139997036718</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8216,7 +8216,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8295,10 +8295,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,22 +8696,22 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>161.8544041422902</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>180.738149607863</v>
       </c>
       <c r="Q11" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,31 +8924,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>201.9664098701124</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>123.4719563470503</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9000,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>9.201528428093297e-13</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9176,16 +9176,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>133.2530576400255</v>
+        <v>103.7862464855167</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>9.201528428093297e-13</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9398,22 +9398,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>19.79750571619451</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>9.201528428093297e-13</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9635,31 +9635,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476828</v>
+        <v>295.4822118493984</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9875,22 +9875,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>135.6385654278976</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9948,7 +9948,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -10115,7 +10115,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>29.61882225792226</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10124,7 +10124,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476826</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10133,7 +10133,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>9.059419880941277e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10212,7 +10212,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>-3.373755230161187e-13</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>398.2509825792569</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476826</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10583,31 +10583,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>105.1996354507095</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>13.98823883547163</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>344.7025836476838</v>
+        <v>338.5992815305724</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11063,7 +11063,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>285.7011105564225</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11072,10 +11072,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11300,10 +11300,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>216.9877583263338</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -11312,13 +11312,13 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>314.5564971416988</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986243</v>
+        <v>92.48912964369924</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590283</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,10 +23467,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>154.5110365076729</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>105.074288727014</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23671,7 +23671,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>270.7945323937515</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>92.48912964370422</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>92.48912964370459</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24133,19 +24133,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,22 +24178,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>179.0255782599554</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>20.18346650181388</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24382,7 +24382,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>96.3524204098381</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>70.08471413683915</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>105.0742887270138</v>
       </c>
     </row>
     <row r="26">
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>35.10510839313135</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24619,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>69.12041821276441</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,28 +24883,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>39.93068280207732</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>15.39494727287964</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25072,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>88.30223393795848</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>135.3238162714488</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983806</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004729</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,16 +25129,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>178.7757248935322</v>
+        <v>178.7757248935319</v>
       </c>
       <c r="C37" t="n">
-        <v>166.1905658102227</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>40.40780214967344</v>
+        <v>147.559217729807</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>145.3777073581638</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>144.3647927345258</v>
       </c>
       <c r="G37" t="n">
-        <v>164.9695529706231</v>
+        <v>164.9695529706228</v>
       </c>
       <c r="H37" t="n">
-        <v>143.6987596259156</v>
+        <v>143.6987596259154</v>
       </c>
       <c r="I37" t="n">
-        <v>95.29616512143295</v>
+        <v>95.29616512143272</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.87589738164219</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.5283980636897</v>
+        <v>74.70094558272686</v>
       </c>
     </row>
     <row r="38">
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>-9.541256801314353e-13</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25783,7 +25783,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>2.913225216616411e-13</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1010815.504739362</v>
+        <v>1010815.504739363</v>
       </c>
     </row>
     <row r="14">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>410520.8849321415</v>
+        <v>410520.8849321416</v>
       </c>
       <c r="C2" t="n">
         <v>410520.8849321415</v>
@@ -26320,7 +26320,7 @@
         <v>410520.8849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>397081.7868869829</v>
+        <v>397081.7868869832</v>
       </c>
       <c r="F2" t="n">
         <v>397081.786886983</v>
@@ -26335,25 +26335,25 @@
         <v>397081.786886983</v>
       </c>
       <c r="J2" t="n">
+        <v>397081.786886983</v>
+      </c>
+      <c r="K2" t="n">
+        <v>397081.7868869829</v>
+      </c>
+      <c r="L2" t="n">
         <v>397081.7868869831</v>
-      </c>
-      <c r="K2" t="n">
-        <v>397081.786886983</v>
-      </c>
-      <c r="L2" t="n">
-        <v>397081.786886983</v>
       </c>
       <c r="M2" t="n">
         <v>397383.9705399409</v>
       </c>
       <c r="N2" t="n">
+        <v>410520.8849321418</v>
+      </c>
+      <c r="O2" t="n">
+        <v>410520.8849321418</v>
+      </c>
+      <c r="P2" t="n">
         <v>410520.8849321416</v>
-      </c>
-      <c r="O2" t="n">
-        <v>410520.8849321416</v>
-      </c>
-      <c r="P2" t="n">
-        <v>410520.8849321414</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>3.310606189188547e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130487.3190696685</v>
+        <v>130487.3190696691</v>
       </c>
       <c r="N3" t="n">
-        <v>36735.10506414995</v>
+        <v>36735.10506414975</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26421,43 +26421,43 @@
         <v>183348.686857128</v>
       </c>
       <c r="D4" t="n">
-        <v>183348.6868571279</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18148.49231918991</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18148.49231918996</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18148.4923191899</v>
+      </c>
+      <c r="I4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="F4" t="n">
-        <v>18148.49231918993</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="K4" t="n">
+        <v>18148.49231918995</v>
+      </c>
+      <c r="L4" t="n">
         <v>18148.49231918994</v>
       </c>
-      <c r="H4" t="n">
-        <v>18148.49231918991</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18148.49231918992</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18148.49231918994</v>
-      </c>
-      <c r="K4" t="n">
-        <v>18148.49231918991</v>
-      </c>
-      <c r="L4" t="n">
-        <v>18148.49231918992</v>
-      </c>
       <c r="M4" t="n">
-        <v>18496.05294811445</v>
+        <v>18496.05294811454</v>
       </c>
       <c r="N4" t="n">
-        <v>33605.65329740898</v>
+        <v>33605.65329740899</v>
       </c>
       <c r="O4" t="n">
-        <v>33605.65329740897</v>
+        <v>33605.65329740895</v>
       </c>
       <c r="P4" t="n">
-        <v>33605.653297409</v>
+        <v>33605.65329740899</v>
       </c>
     </row>
     <row r="5">
@@ -26473,34 +26473,34 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="I5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371367</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371367</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96472.31657955458</v>
+        <v>96472.31657955461</v>
       </c>
       <c r="N5" t="n">
         <v>100332.6710141021</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-445654.7592029403</v>
+        <v>-445654.7592029402</v>
       </c>
       <c r="C6" t="n">
         <v>144313.1200116041</v>
@@ -26528,40 +26528,40 @@
         <v>144313.1200116042</v>
       </c>
       <c r="E6" t="n">
-        <v>-444827.6376793273</v>
+        <v>-444894.833169553</v>
       </c>
       <c r="F6" t="n">
-        <v>282549.7763140794</v>
+        <v>282482.5808238538</v>
       </c>
       <c r="G6" t="n">
-        <v>282549.7763140794</v>
+        <v>282482.5808238536</v>
       </c>
       <c r="H6" t="n">
-        <v>282549.7763140794</v>
+        <v>282482.5808238537</v>
       </c>
       <c r="I6" t="n">
-        <v>282549.7763140794</v>
+        <v>282482.5808238536</v>
       </c>
       <c r="J6" t="n">
-        <v>106126.5571214866</v>
+        <v>106059.3616312607</v>
       </c>
       <c r="K6" t="n">
-        <v>282549.7763140791</v>
+        <v>282482.5808238535</v>
       </c>
       <c r="L6" t="n">
-        <v>282549.7763140794</v>
+        <v>282482.5808238537</v>
       </c>
       <c r="M6" t="n">
-        <v>151928.2819426034</v>
+        <v>151862.5973706416</v>
       </c>
       <c r="N6" t="n">
-        <v>239847.4555564806</v>
+        <v>239847.4555564809</v>
       </c>
       <c r="O6" t="n">
-        <v>276582.5606206306</v>
+        <v>276582.5606206307</v>
       </c>
       <c r="P6" t="n">
-        <v>276582.5606206303</v>
+        <v>276582.5606206305</v>
       </c>
     </row>
   </sheetData>
@@ -26716,16 +26716,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="N2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26762,10 +26762,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="K3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="L3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
         <v>1089.776700593298</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26938,10 +26938,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="N2" t="n">
-        <v>45.91888133018744</v>
+        <v>45.91888133018718</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503745</v>
+        <v>520.2256578503749</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>316.8758943861216</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>170.7474089416838</v>
       </c>
     </row>
     <row r="3">
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,7 +27552,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
@@ -27579,28 +27579,28 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>122.9515118721842</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>130.3958356744439</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,16 +27613,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27631,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>188.5132374961972</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27670,16 +27670,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>275.817813925871</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,28 +27816,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>96.68503059263386</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>83.36203824822886</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27859,19 +27859,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>25.62249991171912</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>6.162381606135398</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>32.27045943590832</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>45.199959188537</v>
@@ -28059,16 +28059,16 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>125.1332306165952</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28147,10 +28147,10 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.069224708771799e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-1.463149601477198e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28248,7 +28248,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>3.546261950759799e-12</v>
+        <v>4.852779511566041e-12</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -28345,7 +28345,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-1.264766069652978e-12</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>-1.989519660128281e-13</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>-3.765876499528531e-13</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="C37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="D37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="E37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="F37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="G37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="H37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="I37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="J37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="K37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="L37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="M37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="N37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="O37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="P37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="R37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="S37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="T37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="U37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="V37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="W37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="X37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.056255288405142</v>
+        <v>1.056255288405391</v>
       </c>
     </row>
     <row r="38">
@@ -30241,7 +30241,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-4.050093593832571e-13</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="41">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-1.051603248924948e-12</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31987,43 +31987,43 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
@@ -32072,40 +32072,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S15" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H16" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I16" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
         <v>138.937596729739</v>
@@ -32160,16 +32160,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O16" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
         <v>237.6785118802169</v>
@@ -32178,16 +32178,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,43 +32224,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32309,40 +32309,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32397,16 +32397,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32415,16 +32415,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32546,40 +32546,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32634,16 +32634,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32652,16 +32652,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U29" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H30" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K31" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q31" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.3810118616816</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.8670377284467</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003813</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623196</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574997</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095027</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099062</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746416</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781692</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806955</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U32" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H33" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752261</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138798</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233477</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837927</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970252</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002915</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987488</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238318</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898503</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1542136840462216</v>
+        <v>0.1542136840462215</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742022</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
-        <v>138.9375967297391</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K34" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098821</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
-        <v>308.0495024316434</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q34" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.3612387071222</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112299</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138801</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,13 +34778,13 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34936,7 +34936,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343417</v>
       </c>
       <c r="L5" t="n">
         <v>421.5361394435301</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047527</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35270,7 +35270,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,22 +35416,22 @@
         <v>873.2513289427826</v>
       </c>
       <c r="M11" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>669.9074050305093</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>720.5606943908545</v>
+        <v>579.5001358272349</v>
       </c>
       <c r="Q11" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>539.1576964255129</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>675.7737917599616</v>
       </c>
       <c r="O14" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K16" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L16" t="n">
         <v>319.7573721701981</v>
@@ -35817,13 +35817,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O16" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P16" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q16" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>988.4346493230593</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O17" t="n">
-        <v>641.3060585282446</v>
+        <v>611.8392473737357</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36054,13 +36054,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,28 +36118,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>475.3876201085264</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O20" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
         <v>125.3296184152072</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36297,7 +36297,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L23" t="n">
-        <v>800.292698040015</v>
+        <v>751.0723262417304</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,25 +36595,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O26" t="n">
-        <v>852.7555845359029</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908545</v>
+        <v>534.4005516472693</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36765,13 +36765,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407865</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923324</v>
+        <v>485.2089366502542</v>
       </c>
       <c r="M29" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129117</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152073</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859627</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M31" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N31" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407865</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265655</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923324</v>
+        <v>853.8410969715889</v>
       </c>
       <c r="M32" t="n">
-        <v>538.921115830227</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129117</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>852.755584535902</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908547</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636244</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152073</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597719</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340056</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013294</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004594</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525808</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
-        <v>313.6359509859612</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127273</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306628</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443197</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M34" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N34" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226399</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789371</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>442.39092200611</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427826</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>566.2900742483829</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>46.63467190147139</v>
+        <v>46.63467190147159</v>
       </c>
       <c r="K37" t="n">
-        <v>207.1039148327247</v>
+        <v>207.1039148327249</v>
       </c>
       <c r="L37" t="n">
-        <v>320.8136274586033</v>
+        <v>320.8136274586035</v>
       </c>
       <c r="M37" t="n">
-        <v>348.689634681889</v>
+        <v>348.6896346818892</v>
       </c>
       <c r="N37" t="n">
-        <v>345.9132014559452</v>
+        <v>345.9132014559454</v>
       </c>
       <c r="O37" t="n">
-        <v>303.4093855110449</v>
+        <v>303.4093855110451</v>
       </c>
       <c r="P37" t="n">
-        <v>236.0133264335156</v>
+        <v>236.0133264335158</v>
       </c>
       <c r="Q37" t="n">
-        <v>79.4504938262988</v>
+        <v>79.45049382629902</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
-        <v>852.7555845359029</v>
+        <v>846.6522824187914</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597767</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,16 +37698,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K40" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
         <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N40" t="n">
         <v>391.8320827861326</v>
@@ -37716,7 +37716,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37780,25 +37780,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>741.2912249487545</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>125.3296184152072</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165881</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38020,10 +38020,10 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>672.577872718666</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N44" t="n">
         <v>552.3018354129115</v>
@@ -38032,13 +38032,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P44" t="n">
-        <v>713.3184833610707</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q44" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165884</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
         <v>366.7325087887907</v>
@@ -38184,7 +38184,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O46" t="n">
         <v>349.3282668412323</v>
